--- a/reports/sea_forecasting/date_teu.xlsx
+++ b/reports/sea_forecasting/date_teu.xlsx
@@ -457,7 +457,7 @@
         <v>45412</v>
       </c>
       <c r="C2" t="n">
-        <v>1674.642774059498</v>
+        <v>1743.719694663737</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>45443</v>
       </c>
       <c r="C3" t="n">
-        <v>1625.286068903788</v>
+        <v>1695.063585414901</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>45473</v>
       </c>
       <c r="C4" t="n">
-        <v>1731.915923189213</v>
+        <v>1801.900523577106</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>45504</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.306121077549</v>
+        <v>1615.316380139134</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>45535</v>
       </c>
       <c r="C6" t="n">
-        <v>1813.506637856899</v>
+        <v>1882.454958904814</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>45565</v>
       </c>
       <c r="C7" t="n">
-        <v>1814.301243075642</v>
+        <v>1883.082818035052</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>45596</v>
       </c>
       <c r="C8" t="n">
-        <v>1972.929607344079</v>
+        <v>2041.591024830164</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         <v>45626</v>
       </c>
       <c r="C9" t="n">
-        <v>1770.847874833755</v>
+        <v>1839.22473880095</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>45657</v>
       </c>
       <c r="C10" t="n">
-        <v>1671.587443710602</v>
+        <v>1740.411494112837</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>45688</v>
       </c>
       <c r="C11" t="n">
-        <v>1727.330986665467</v>
+        <v>1798.797526916355</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>45716</v>
       </c>
       <c r="C12" t="n">
-        <v>1547.691009731222</v>
+        <v>1619.332484223694</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +578,7 @@
         <v>45747</v>
       </c>
       <c r="C13" t="n">
-        <v>1834.824615117899</v>
+        <v>1942.499701854064</v>
       </c>
     </row>
   </sheetData>
